--- a/gtsam_unstable/base/tests/timeDSFvariants2.xlsx
+++ b/gtsam_unstable/base/tests/timeDSFvariants2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="1280" yWindow="0" windowWidth="37120" windowHeight="21080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dsf-timing.csv" sheetId="1" r:id="rId1"/>
